--- a/artfynd/A 60293-2025 artfynd.xlsx
+++ b/artfynd/A 60293-2025 artfynd.xlsx
@@ -1011,7 +1011,7 @@
         <v>130333857</v>
       </c>
       <c r="B5" t="n">
-        <v>58312</v>
+        <v>58316</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
